--- a/PythonResources/Data/Consumption/Sympheny/base_CA_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CA_hea.xlsx
@@ -551,7 +551,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>119.808319817874</v>
+        <v>119.8083198178739</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -583,7 +583,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>802.0352025208799</v>
+        <v>802.0352025208798</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>606.6467925426316</v>
+        <v>606.6467925426315</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>568.6345996151392</v>
+        <v>568.6345996151391</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>50.78847832241449</v>
+        <v>50.78847832241448</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>848.6856643129156</v>
+        <v>848.6856643129155</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>58.18720322893948</v>
+        <v>58.18720322893947</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>89.00010609171601</v>
+        <v>89.00010609171599</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>5.363258621710352</v>
+        <v>5.363258621710351</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>19.09419361796784</v>
+        <v>19.09419361796783</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>20.80356561948477</v>
+        <v>20.80356561948476</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>57.31801314247766</v>
+        <v>57.31801314247765</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>450.5609672751017</v>
+        <v>450.5609672751016</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>211.3763143503407</v>
+        <v>211.3763143503406</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>234.8633204596996</v>
+        <v>234.8633204596995</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>225.8308710481569</v>
+        <v>225.8308710481568</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>286.6442838545407</v>
+        <v>286.6442838545406</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>40.60575439122991</v>
+        <v>40.6057543912299</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>77.55934541997374</v>
+        <v>77.55934541997372</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>255.3050254063284</v>
+        <v>255.3050254063283</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>539.5634179351271</v>
+        <v>539.5634179351269</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>248.4079795037839</v>
+        <v>248.4079795037838</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>712.0999067447956</v>
+        <v>712.0999067447955</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>346.8549374557097</v>
+        <v>346.8549374557096</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>827.6100467096622</v>
+        <v>827.6100467096621</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>237.9911035355505</v>
+        <v>237.9911035355504</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>121.5509084909128</v>
+        <v>121.5509084909127</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>31.08561425638207</v>
+        <v>31.08561425638206</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>591.7321143141171</v>
+        <v>591.732114314117</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>471.0308070414421</v>
+        <v>471.030807041442</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>29.71186427762972</v>
+        <v>29.71186427762971</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>96.24189145703785</v>
+        <v>96.24189145703784</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>39.46556151531795</v>
+        <v>39.46556151531794</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>28.24431105153303</v>
+        <v>28.24431105153302</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>76.3992237134328</v>
+        <v>76.39922371343279</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>502.7577984738033</v>
+        <v>502.7577984738032</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>427.2448215812824</v>
+        <v>427.2448215812823</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>212.5077150950928</v>
+        <v>212.5077150950927</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>295.2740536589627</v>
+        <v>295.2740536589626</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>865.0255470024402</v>
+        <v>865.0255470024401</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>527.762033350312</v>
+        <v>527.7620333503119</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>393.2433058178705</v>
+        <v>393.2433058178704</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>692.6947940619119</v>
+        <v>692.6947940619118</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>642.5104816856978</v>
+        <v>642.5104816856976</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>373.205452762517</v>
+        <v>373.2054527625169</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>349.6630562268511</v>
+        <v>349.663056226851</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>377.2041140140124</v>
+        <v>377.2041140140123</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>443</v>
       </c>
       <c r="B443">
-        <v>893.9792071959491</v>
+        <v>893.979207195949</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>815.8112997641952</v>
+        <v>815.811299764195</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>282.1702613783366</v>
+        <v>282.1702613783365</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>327.586894097608</v>
+        <v>327.5868940976079</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>388.9035098773733</v>
+        <v>388.9035098773732</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>348.7366586736426</v>
+        <v>348.7366586736425</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>210.5102894310964</v>
+        <v>210.5102894310963</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>229.7970014143609</v>
+        <v>229.7970014143608</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>440.9716828901025</v>
+        <v>440.9716828901024</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>503</v>
       </c>
       <c r="B503">
-        <v>516.5561691160568</v>
+        <v>516.5561691160567</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>974.6288401830874</v>
+        <v>974.6288401830873</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>530</v>
       </c>
       <c r="B530">
-        <v>486.0846940133207</v>
+        <v>486.0846940133206</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>564.0791033901872</v>
+        <v>564.0791033901871</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>1602.35623253663</v>
+        <v>1602.356232536629</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>433.0022021357846</v>
+        <v>433.0022021357845</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>506.8909793320443</v>
+        <v>506.8909793320441</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>538.8533068084506</v>
+        <v>538.8533068084505</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>586.2722008638563</v>
+        <v>586.2722008638561</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>556</v>
       </c>
       <c r="B556">
-        <v>609.9992321538788</v>
+        <v>609.9992321538787</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>929.9020966888249</v>
+        <v>929.9020966888247</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>563</v>
       </c>
       <c r="B563">
-        <v>827.7697704257326</v>
+        <v>827.7697704257325</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>361.8744471947534</v>
+        <v>361.8744471947533</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>587</v>
       </c>
       <c r="B587">
-        <v>698.2997776763102</v>
+        <v>698.29977767631</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>1042.397121807944</v>
+        <v>1042.397121807943</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>599.9164161397739</v>
+        <v>599.9164161397738</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>504.1117866724187</v>
+        <v>504.1117866724186</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>315.064554757686</v>
+        <v>315.0645547576859</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>229.9804638845629</v>
+        <v>229.9804638845628</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>691.9225518750393</v>
+        <v>691.9225518750392</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>355.7375396451848</v>
+        <v>355.7375396451847</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>501.2405697066536</v>
+        <v>501.2405697066534</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>173.6337467784167</v>
+        <v>173.6337467784166</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>872.9668929370466</v>
+        <v>872.9668929370465</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>714</v>
       </c>
       <c r="B714">
-        <v>561.1612881292749</v>
+        <v>561.1612881292748</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>626.1459810289256</v>
+        <v>626.1459810289255</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>298.7841654890096</v>
+        <v>298.7841654890095</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>549.6731964847888</v>
+        <v>549.6731964847887</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>772</v>
       </c>
       <c r="B772">
-        <v>349.265944969465</v>
+        <v>349.2659449694649</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>882.3949882507821</v>
+        <v>882.394988250782</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>765.9868786234572</v>
+        <v>765.9868786234571</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>610.7867140347619</v>
+        <v>610.7867140347618</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>611.8581817521077</v>
+        <v>611.8581817521076</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>783</v>
       </c>
       <c r="B783">
-        <v>562.5806311695118</v>
+        <v>562.5806311695117</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>793.7269316458695</v>
+        <v>793.7269316458694</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>488.5966058856871</v>
+        <v>488.596605885687</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="B796">
-        <v>500.5767638040855</v>
+        <v>500.5767638040854</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>398.1707091908837</v>
+        <v>398.1707091908836</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>640.810669661462</v>
+        <v>640.8106696614619</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>914.6114083177079</v>
+        <v>914.6114083177077</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>861</v>
       </c>
       <c r="B861">
-        <v>360.4392783184288</v>
+        <v>360.4392783184287</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>866</v>
       </c>
       <c r="B866">
-        <v>604.9100535675245</v>
+        <v>604.9100535675244</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7287,7 +7287,7 @@
         <v>868</v>
       </c>
       <c r="B868">
-        <v>660.7799440937688</v>
+        <v>660.7799440937686</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>616.1592923155016</v>
+        <v>616.1592923155015</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>167.5613148573536</v>
+        <v>167.5613148573535</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>831.1304160260623</v>
+        <v>831.1304160260622</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7527,7 +7527,7 @@
         <v>898</v>
       </c>
       <c r="B898">
-        <v>738.7670266946687</v>
+        <v>738.7670266946686</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>575.4842559307322</v>
+        <v>575.484255930732</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>902</v>
       </c>
       <c r="B902">
-        <v>550.8662886831792</v>
+        <v>550.8662886831791</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>601.3046936499127</v>
+        <v>601.3046936499126</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>207.4928300170392</v>
+        <v>207.4928300170391</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>973.2235645527063</v>
+        <v>973.2235645527062</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>748.2572530686003</v>
+        <v>748.2572530686002</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>545.9567626435243</v>
+        <v>545.9567626435241</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7799,7 +7799,7 @@
         <v>932</v>
       </c>
       <c r="B932">
-        <v>53.35654260578839</v>
+        <v>53.35654260578838</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>192.6484888378034</v>
+        <v>192.6484888378033</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>878.6495403766902</v>
+        <v>878.6495403766901</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>85.58700077546598</v>
+        <v>85.58700077546597</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>118.7399000393302</v>
+        <v>118.7399000393301</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>96.86551732020533</v>
+        <v>96.86551732020531</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>105.099318844292</v>
+        <v>105.0993188442919</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>26.43629719982346</v>
+        <v>26.43629719982345</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>2.708908363133774</v>
+        <v>2.708908363133773</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>84.0881182553364</v>
+        <v>84.08811825533638</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>782.2775253784866</v>
+        <v>782.2775253784865</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>1049</v>
       </c>
       <c r="B1049">
-        <v>317.0328198533356</v>
+        <v>317.0328198533355</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>163.5157622396724</v>
+        <v>163.5157622396723</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>96.34974159926523</v>
+        <v>96.3497415992652</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>1099</v>
       </c>
       <c r="B1099">
-        <v>601.4248527757638</v>
+        <v>601.4248527757637</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>234.6265190604612</v>
+        <v>234.6265190604611</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>1109</v>
       </c>
       <c r="B1109">
-        <v>264.6091516707101</v>
+        <v>264.60915167071</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>701.6278923913484</v>
+        <v>701.6278923913483</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>643.5318342554326</v>
+        <v>643.5318342554325</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>1117</v>
       </c>
       <c r="B1117">
-        <v>674.1325536862183</v>
+        <v>674.1325536862182</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>306.6314356202058</v>
+        <v>306.6314356202057</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>1129</v>
       </c>
       <c r="B1129">
-        <v>397.9626287534341</v>
+        <v>397.962628753434</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>439.5936628663169</v>
+        <v>439.5936628663168</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>1150</v>
       </c>
       <c r="B1150">
-        <v>426.514781623977</v>
+        <v>426.5147816239769</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -9703,7 +9703,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>180.8749460016612</v>
+        <v>180.8749460016611</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>1176</v>
       </c>
       <c r="B1176">
-        <v>396.2144600078192</v>
+        <v>396.2144600078191</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9911,7 +9911,7 @@
         <v>1196</v>
       </c>
       <c r="B1196">
-        <v>201.6375637356242</v>
+        <v>201.6375637356241</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -9943,7 +9943,7 @@
         <v>1200</v>
       </c>
       <c r="B1200">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>359.9038668378984</v>
+        <v>359.9038668378983</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>415.7551180460837</v>
+        <v>415.7551180460836</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10167,7 +10167,7 @@
         <v>1228</v>
       </c>
       <c r="B1228">
-        <v>56.99929838793345</v>
+        <v>56.99929838793344</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>51.26682887171754</v>
+        <v>51.26682887171753</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>513.9813055845859</v>
+        <v>513.9813055845858</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>30.87899038199466</v>
+        <v>30.87899038199465</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>51.34384794067774</v>
+        <v>51.34384794067773</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>47.61176410594871</v>
+        <v>47.6117641059487</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>204.2798922201949</v>
+        <v>204.2798922201948</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>19.25239336463723</v>
+        <v>19.25239336463722</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>58.34595981058233</v>
+        <v>58.34595981058232</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>34.91771444447506</v>
+        <v>34.91771444447505</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -11087,7 +11087,7 @@
         <v>1343</v>
       </c>
       <c r="B1343">
-        <v>0.9434396341066698</v>
+        <v>0.9434396341066696</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>69.48714326660497</v>
+        <v>69.48714326660496</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>1366</v>
       </c>
       <c r="B1366">
-        <v>22.48968829550471</v>
+        <v>22.4896882955047</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>49.94660245675591</v>
+        <v>49.9466024567559</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11343,7 +11343,7 @@
         <v>1375</v>
       </c>
       <c r="B1375">
-        <v>489.5216553121178</v>
+        <v>489.5216553121177</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>79.1658143183959</v>
+        <v>79.16581431839589</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>46.76859872772001</v>
+        <v>46.76859872772</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>325.0228155803598</v>
+        <v>325.0228155803597</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11823,7 +11823,7 @@
         <v>1435</v>
       </c>
       <c r="B1435">
-        <v>635.1834126481255</v>
+        <v>635.1834126481253</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>557.7223925616227</v>
+        <v>557.7223925616225</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>406.0930055079772</v>
+        <v>406.0930055079771</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12231,7 +12231,7 @@
         <v>1486</v>
       </c>
       <c r="B1486">
-        <v>280.237457878365</v>
+        <v>280.2374578783649</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>439.843652462295</v>
+        <v>439.8436524622949</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12343,7 +12343,7 @@
         <v>1500</v>
       </c>
       <c r="B1500">
-        <v>80.43979412345676</v>
+        <v>80.43979412345675</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -12359,7 +12359,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>51.71719113682843</v>
+        <v>51.71719113682842</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12375,7 +12375,7 @@
         <v>1504</v>
       </c>
       <c r="B1504">
-        <v>52.86526762368038</v>
+        <v>52.86526762368037</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
@@ -12487,7 +12487,7 @@
         <v>1518</v>
       </c>
       <c r="B1518">
-        <v>979.6309766709593</v>
+        <v>979.6309766709591</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1520</v>
       </c>
       <c r="B1520">
-        <v>447.0016195105597</v>
+        <v>447.0016195105596</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12511,7 +12511,7 @@
         <v>1521</v>
       </c>
       <c r="B1521">
-        <v>302.3273650393214</v>
+        <v>302.3273650393213</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>423.0078935753554</v>
+        <v>423.0078935753553</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12735,7 +12735,7 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>88.03177007287505</v>
+        <v>88.03177007287503</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>23.40133206648493</v>
+        <v>23.40133206648492</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>87.10335032949978</v>
+        <v>87.10335032949976</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12935,7 +12935,7 @@
         <v>1574</v>
       </c>
       <c r="B1574">
-        <v>2.205444556527836</v>
+        <v>2.205444556527835</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -13095,7 +13095,7 @@
         <v>1594</v>
       </c>
       <c r="B1594">
-        <v>443.6412669812687</v>
+        <v>443.6412669812686</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13103,7 +13103,7 @@
         <v>1595</v>
       </c>
       <c r="B1595">
-        <v>547.4098088532072</v>
+        <v>547.4098088532071</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>440.8960705621279</v>
+        <v>440.8960705621278</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>223.9212201602396</v>
+        <v>223.9212201602395</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>680.4564405584529</v>
+        <v>680.4564405584526</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>476.3529771035321</v>
+        <v>476.352977103532</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>413.8412176281058</v>
+        <v>413.8412176281057</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>579.8366539258918</v>
+        <v>579.8366539258917</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>88.09480965329111</v>
+        <v>88.09480965329109</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13399,7 +13399,7 @@
         <v>1632</v>
       </c>
       <c r="B1632">
-        <v>288.8830535188747</v>
+        <v>288.8830535188746</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>424.7669059494008</v>
+        <v>424.7669059494007</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>238.36610551378</v>
+        <v>238.3661055137799</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>53.88688395734997</v>
+        <v>53.88688395734995</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>350.3292066977284</v>
+        <v>350.3292066977283</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14135,7 +14135,7 @@
         <v>1724</v>
       </c>
       <c r="B1724">
-        <v>50.00337031694461</v>
+        <v>50.0033703169446</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14143,7 +14143,7 @@
         <v>1725</v>
       </c>
       <c r="B1725">
-        <v>69.15861063226561</v>
+        <v>69.15861063226559</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14263,7 +14263,7 @@
         <v>1740</v>
       </c>
       <c r="B1740">
-        <v>193.5739485636882</v>
+        <v>193.5739485636881</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14431,7 +14431,7 @@
         <v>1761</v>
       </c>
       <c r="B1761">
-        <v>295.5732791894359</v>
+        <v>295.5732791894358</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>226.6459895279857</v>
+        <v>226.6459895279856</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14519,7 +14519,7 @@
         <v>1772</v>
       </c>
       <c r="B1772">
-        <v>38.97827229933573</v>
+        <v>38.97827229933572</v>
       </c>
     </row>
     <row r="1773" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>464.1477406274417</v>
+        <v>464.1477406274416</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14671,7 +14671,7 @@
         <v>1791</v>
       </c>
       <c r="B1791">
-        <v>84.43353178150265</v>
+        <v>84.43353178150264</v>
       </c>
     </row>
     <row r="1792" spans="1:2">
@@ -14703,7 +14703,7 @@
         <v>1795</v>
       </c>
       <c r="B1795">
-        <v>35.44822870794944</v>
+        <v>35.44822870794943</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14743,7 +14743,7 @@
         <v>1800</v>
       </c>
       <c r="B1800">
-        <v>128.0049306271545</v>
+        <v>128.0049306271544</v>
       </c>
     </row>
     <row r="1801" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>145.7196095590395</v>
+        <v>145.7196095590394</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>407.4651641109896</v>
+        <v>407.4651641109895</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>30.84250303768132</v>
+        <v>30.84250303768131</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>114.581898994825</v>
+        <v>114.5818989948249</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15239,7 +15239,7 @@
         <v>1862</v>
       </c>
       <c r="B1862">
-        <v>23.37174126985337</v>
+        <v>23.37174126985336</v>
       </c>
     </row>
     <row r="1863" spans="1:2">
@@ -15335,7 +15335,7 @@
         <v>1874</v>
       </c>
       <c r="B1874">
-        <v>58.07777050310334</v>
+        <v>58.07777050310333</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15511,7 +15511,7 @@
         <v>1896</v>
       </c>
       <c r="B1896">
-        <v>82.52059849795232</v>
+        <v>82.52059849795231</v>
       </c>
     </row>
     <row r="1897" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>54.50274343799291</v>
+        <v>54.5027434379929</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15815,7 +15815,7 @@
         <v>1934</v>
       </c>
       <c r="B1934">
-        <v>11.09194752152754</v>
+        <v>11.09194752152753</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
@@ -15871,7 +15871,7 @@
         <v>1941</v>
       </c>
       <c r="B1941">
-        <v>26.9240201609429</v>
+        <v>26.92402016094289</v>
       </c>
     </row>
     <row r="1942" spans="1:2">
@@ -15895,7 +15895,7 @@
         <v>1944</v>
       </c>
       <c r="B1944">
-        <v>43.3894017306431</v>
+        <v>43.38940173064309</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -15903,7 +15903,7 @@
         <v>1945</v>
       </c>
       <c r="B1945">
-        <v>57.67629248724116</v>
+        <v>57.67629248724115</v>
       </c>
     </row>
     <row r="1946" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>73.29706676920246</v>
+        <v>73.29706676920244</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>431.3689172373249</v>
+        <v>431.3689172373248</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -16023,7 +16023,7 @@
         <v>1960</v>
       </c>
       <c r="B1960">
-        <v>363.457616945602</v>
+        <v>363.4576169456019</v>
       </c>
     </row>
     <row r="1961" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>409.0237158945906</v>
+        <v>409.0237158945905</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16223,7 +16223,7 @@
         <v>1985</v>
       </c>
       <c r="B1985">
-        <v>70.10904001064435</v>
+        <v>70.10904001064434</v>
       </c>
     </row>
     <row r="1986" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>143.765118802207</v>
+        <v>143.7651188022069</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>124.6612831470672</v>
+        <v>124.6612831470671</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>129.188351481269</v>
+        <v>129.1883514812689</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16511,7 +16511,7 @@
         <v>2021</v>
       </c>
       <c r="B2021">
-        <v>991.8702093875345</v>
+        <v>991.8702093875341</v>
       </c>
     </row>
     <row r="2022" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>683.2866275788055</v>
+        <v>683.2866275788053</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16783,7 +16783,7 @@
         <v>2055</v>
       </c>
       <c r="B2055">
-        <v>346.5290424607183</v>
+        <v>346.5290424607182</v>
       </c>
     </row>
     <row r="2056" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>850.5071008181958</v>
+        <v>850.5071008181957</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -17079,7 +17079,7 @@
         <v>2092</v>
       </c>
       <c r="B2092">
-        <v>79.99842913923278</v>
+        <v>79.99842913923277</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -17143,7 +17143,7 @@
         <v>2100</v>
       </c>
       <c r="B2100">
-        <v>200.5244213165807</v>
+        <v>200.5244213165806</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>107.4257753633935</v>
+        <v>107.4257753633934</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>2.968164865354373</v>
+        <v>2.968164865354372</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>80.65139141337026</v>
+        <v>80.65139141337025</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>2.309774915580888</v>
+        <v>2.309774915580887</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17783,7 +17783,7 @@
         <v>2180</v>
       </c>
       <c r="B2180">
-        <v>36.31068109123243</v>
+        <v>36.31068109123242</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -18015,7 +18015,7 @@
         <v>2209</v>
       </c>
       <c r="B2209">
-        <v>21.45584796881256</v>
+        <v>21.45584796881255</v>
       </c>
     </row>
     <row r="2210" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>451.6954452657599</v>
+        <v>451.6954452657598</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18063,7 +18063,7 @@
         <v>2215</v>
       </c>
       <c r="B2215">
-        <v>367.9427761212752</v>
+        <v>367.9427761212751</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -18095,7 +18095,7 @@
         <v>2219</v>
       </c>
       <c r="B2219">
-        <v>7.766675595564312</v>
+        <v>7.766675595564311</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>24.41523828726941</v>
+        <v>24.4152382872694</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18279,7 +18279,7 @@
         <v>2242</v>
       </c>
       <c r="B2242">
-        <v>6.250179506011181</v>
+        <v>6.25017950601118</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
@@ -18503,7 +18503,7 @@
         <v>2270</v>
       </c>
       <c r="B2270">
-        <v>7.403326121831976</v>
+        <v>7.403326121831975</v>
       </c>
     </row>
     <row r="2271" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>0.5393708702627266</v>
+        <v>0.5393708702627265</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>4.500955704657075</v>
+        <v>4.500955704657074</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>183.286715500117</v>
+        <v>183.2867155001169</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>88.95702464903279</v>
+        <v>88.95702464903277</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18999,7 +18999,7 @@
         <v>2332</v>
       </c>
       <c r="B2332">
-        <v>33.85275290418746</v>
+        <v>33.85275290418745</v>
       </c>
     </row>
     <row r="2333" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>41.21027202267667</v>
+        <v>41.21027202267666</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>0.8067102717296057</v>
+        <v>0.8067102717296056</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19263,7 +19263,7 @@
         <v>2365</v>
       </c>
       <c r="B2365">
-        <v>79.41293181819515</v>
+        <v>79.41293181819513</v>
       </c>
     </row>
     <row r="2366" spans="1:2">
@@ -19335,7 +19335,7 @@
         <v>2374</v>
       </c>
       <c r="B2374">
-        <v>92.45658592168792</v>
+        <v>92.45658592168789</v>
       </c>
     </row>
     <row r="2375" spans="1:2">
@@ -19543,7 +19543,7 @@
         <v>2400</v>
       </c>
       <c r="B2400">
-        <v>124.3702636056765</v>
+        <v>124.3702636056764</v>
       </c>
     </row>
     <row r="2401" spans="1:2">
@@ -19607,7 +19607,7 @@
         <v>2408</v>
       </c>
       <c r="B2408">
-        <v>431.564395620112</v>
+        <v>431.5643956201119</v>
       </c>
     </row>
     <row r="2409" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>2.78329272345641</v>
+        <v>2.783292723456409</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>24.25663996398744</v>
+        <v>24.25663996398743</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>6.403279816607868</v>
+        <v>6.403279816607867</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>2.237527043130093</v>
+        <v>2.237527043130092</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20031,7 +20031,7 @@
         <v>2461</v>
       </c>
       <c r="B2461">
-        <v>5.135630345982085</v>
+        <v>5.135630345982084</v>
       </c>
     </row>
     <row r="2462" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>94.48141372779915</v>
+        <v>94.48141372779914</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>44.76062250633181</v>
+        <v>44.7606225063318</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>75.69380172337495</v>
+        <v>75.69380172337493</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>7.69150873556845</v>
+        <v>7.691508735568449</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20527,7 +20527,7 @@
         <v>2523</v>
       </c>
       <c r="B2523">
-        <v>69.40068731019988</v>
+        <v>69.40068731019987</v>
       </c>
     </row>
     <row r="2524" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>530.9022895295683</v>
+        <v>530.9022895295682</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>5.021918782981483</v>
+        <v>5.021918782981482</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>193.6150664304124</v>
+        <v>193.6150664304123</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>30.79687187696175</v>
+        <v>30.79687187696174</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>121.3610101807018</v>
+        <v>121.3610101807017</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21175,7 +21175,7 @@
         <v>2604</v>
       </c>
       <c r="B2604">
-        <v>34.90944984118481</v>
+        <v>34.9094498411848</v>
       </c>
     </row>
     <row r="2605" spans="1:2">
@@ -21223,7 +21223,7 @@
         <v>2610</v>
       </c>
       <c r="B2610">
-        <v>55.56568278811375</v>
+        <v>55.56568278811374</v>
       </c>
     </row>
     <row r="2611" spans="1:2">
@@ -21239,7 +21239,7 @@
         <v>2612</v>
       </c>
       <c r="B2612">
-        <v>7.664657567006298</v>
+        <v>7.664657567006297</v>
       </c>
     </row>
     <row r="2613" spans="1:2">
@@ -21247,7 +21247,7 @@
         <v>2613</v>
       </c>
       <c r="B2613">
-        <v>11.11650687456736</v>
+        <v>11.11650687456735</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -21351,7 +21351,7 @@
         <v>2626</v>
       </c>
       <c r="B2626">
-        <v>66.17436085602534</v>
+        <v>66.17436085602533</v>
       </c>
     </row>
     <row r="2627" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>0.5620457765239548</v>
+        <v>0.5620457765239547</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>22.42752499749425</v>
+        <v>22.42752499749424</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>62.61146224277888</v>
+        <v>62.61146224277887</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21847,7 +21847,7 @@
         <v>2688</v>
       </c>
       <c r="B2688">
-        <v>46.91023996070504</v>
+        <v>46.91023996070503</v>
       </c>
     </row>
     <row r="2689" spans="1:2">
@@ -21855,7 +21855,7 @@
         <v>2689</v>
       </c>
       <c r="B2689">
-        <v>51.00986418501927</v>
+        <v>51.00986418501925</v>
       </c>
     </row>
     <row r="2690" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>191.6701004823364</v>
+        <v>191.6701004823363</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -21975,7 +21975,7 @@
         <v>2704</v>
       </c>
       <c r="B2704">
-        <v>258.1997759764981</v>
+        <v>258.199775976498</v>
       </c>
     </row>
     <row r="2705" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>94.65784249307328</v>
+        <v>94.65784249307326</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22167,7 +22167,7 @@
         <v>2728</v>
       </c>
       <c r="B2728">
-        <v>94.32930985873392</v>
+        <v>94.32930985873389</v>
       </c>
     </row>
     <row r="2729" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>122.2692373295133</v>
+        <v>122.2692373295132</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>35.06518779112945</v>
+        <v>35.06518779112944</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22287,7 +22287,7 @@
         <v>2743</v>
       </c>
       <c r="B2743">
-        <v>308.6428407727463</v>
+        <v>308.6428407727462</v>
       </c>
     </row>
     <row r="2744" spans="1:2">
@@ -22463,7 +22463,7 @@
         <v>2765</v>
       </c>
       <c r="B2765">
-        <v>428.1034024961447</v>
+        <v>428.1034024961446</v>
       </c>
     </row>
     <row r="2766" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>374.0825850741265</v>
+        <v>374.0825850741264</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>73.90263652567802</v>
+        <v>73.90263652567801</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22511,7 +22511,7 @@
         <v>2771</v>
       </c>
       <c r="B2771">
-        <v>7.432545304386513</v>
+        <v>7.432545304386512</v>
       </c>
     </row>
     <row r="2772" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>5.862768900004748</v>
+        <v>5.862768900004747</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22631,7 +22631,7 @@
         <v>2786</v>
       </c>
       <c r="B2786">
-        <v>21.58056728002528</v>
+        <v>21.58056728002527</v>
       </c>
     </row>
     <row r="2787" spans="1:2">
@@ -22703,7 +22703,7 @@
         <v>2795</v>
       </c>
       <c r="B2795">
-        <v>4.650597776997558</v>
+        <v>4.650597776997557</v>
       </c>
     </row>
     <row r="2796" spans="1:2">
@@ -22751,7 +22751,7 @@
         <v>2801</v>
       </c>
       <c r="B2801">
-        <v>72.18281068021203</v>
+        <v>72.18281068021201</v>
       </c>
     </row>
     <row r="2802" spans="1:2">
@@ -22967,7 +22967,7 @@
         <v>2828</v>
       </c>
       <c r="B2828">
-        <v>6.570504685912838</v>
+        <v>6.570504685912837</v>
       </c>
     </row>
     <row r="2829" spans="1:2">
@@ -22975,7 +22975,7 @@
         <v>2829</v>
       </c>
       <c r="B2829">
-        <v>12.32237697024333</v>
+        <v>12.32237697024332</v>
       </c>
     </row>
     <row r="2830" spans="1:2">
@@ -22983,7 +22983,7 @@
         <v>2830</v>
       </c>
       <c r="B2830">
-        <v>21.65803767838502</v>
+        <v>21.65803767838501</v>
       </c>
     </row>
     <row r="2831" spans="1:2">
@@ -23015,7 +23015,7 @@
         <v>2834</v>
       </c>
       <c r="B2834">
-        <v>54.7146924131528</v>
+        <v>54.71469241315279</v>
       </c>
     </row>
     <row r="2835" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>96.18884559904015</v>
+        <v>96.18884559904014</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23047,7 +23047,7 @@
         <v>2838</v>
       </c>
       <c r="B2838">
-        <v>97.52642181949052</v>
+        <v>97.52642181949051</v>
       </c>
     </row>
     <row r="2839" spans="1:2">
@@ -23087,7 +23087,7 @@
         <v>2843</v>
       </c>
       <c r="B2843">
-        <v>0.9486269914909756</v>
+        <v>0.9486269914909754</v>
       </c>
     </row>
     <row r="2844" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>31.09105658557001</v>
+        <v>31.09105658557</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23223,7 +23223,7 @@
         <v>2860</v>
       </c>
       <c r="B2860">
-        <v>33.69965259359078</v>
+        <v>33.69965259359077</v>
       </c>
     </row>
     <row r="2861" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>87.28007216581257</v>
+        <v>87.28007216581256</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23823,7 +23823,7 @@
         <v>2935</v>
       </c>
       <c r="B2935">
-        <v>46.45791411963512</v>
+        <v>46.45791411963511</v>
       </c>
     </row>
     <row r="2936" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>2.000072095475511</v>
+        <v>2.00007209547551</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>0.1768038962036164</v>
+        <v>0.1768038962036163</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>7.884841838352567</v>
+        <v>7.884841838352566</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>6.501106929313025</v>
+        <v>6.501106929313024</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -24175,7 +24175,7 @@
         <v>2979</v>
       </c>
       <c r="B2979">
-        <v>32.82761971805395</v>
+        <v>32.82761971805394</v>
       </c>
     </row>
     <row r="2980" spans="1:2">
@@ -24367,7 +24367,7 @@
         <v>3003</v>
       </c>
       <c r="B3003">
-        <v>13.23400374310331</v>
+        <v>13.2340037431033</v>
       </c>
     </row>
     <row r="3004" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>8.431712396494637</v>
+        <v>8.431712396494635</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>59.8201950563605</v>
+        <v>59.82019505636049</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>49.75730787288455</v>
+        <v>49.75730787288454</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>37.18162960392622</v>
+        <v>37.18162960392621</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25015,7 +25015,7 @@
         <v>3084</v>
       </c>
       <c r="B3084">
-        <v>36.46331248816726</v>
+        <v>36.46331248816725</v>
       </c>
     </row>
     <row r="3085" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>7.485854926319011</v>
+        <v>7.48585492631901</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>74.8222084543961</v>
+        <v>74.82220845439609</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25199,7 +25199,7 @@
         <v>3107</v>
       </c>
       <c r="B3107">
-        <v>1.835298765408943</v>
+        <v>1.835298765408942</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -25399,7 +25399,7 @@
         <v>3132</v>
       </c>
       <c r="B3132">
-        <v>1.635855131468738</v>
+        <v>1.635855131468737</v>
       </c>
     </row>
     <row r="3133" spans="1:2">
@@ -26159,7 +26159,7 @@
         <v>3227</v>
       </c>
       <c r="B3227">
-        <v>3.036772795504994</v>
+        <v>3.036772795504993</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>37.27101627071793</v>
+        <v>37.27101627071792</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>54.58975622937147</v>
+        <v>54.58975622937146</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>85.43812068782601</v>
+        <v>85.438120687826</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26887,7 +26887,7 @@
         <v>3318</v>
       </c>
       <c r="B3318">
-        <v>47.74144804055635</v>
+        <v>47.74144804055634</v>
       </c>
     </row>
     <row r="3319" spans="1:2">
@@ -27023,7 +27023,7 @@
         <v>3335</v>
       </c>
       <c r="B3335">
-        <v>17.52299288833818</v>
+        <v>17.52299288833817</v>
       </c>
     </row>
     <row r="3336" spans="1:2">
@@ -27047,7 +27047,7 @@
         <v>3338</v>
       </c>
       <c r="B3338">
-        <v>27.97937190187279</v>
+        <v>27.97937190187278</v>
       </c>
     </row>
     <row r="3339" spans="1:2">
@@ -27111,7 +27111,7 @@
         <v>3346</v>
       </c>
       <c r="B3346">
-        <v>1.488282140661204</v>
+        <v>1.488282140661203</v>
       </c>
     </row>
     <row r="3347" spans="1:2">
@@ -27207,7 +27207,7 @@
         <v>3358</v>
       </c>
       <c r="B3358">
-        <v>19.07527588242225</v>
+        <v>19.07527588242224</v>
       </c>
     </row>
     <row r="3359" spans="1:2">
@@ -27311,7 +27311,7 @@
         <v>3371</v>
       </c>
       <c r="B3371">
-        <v>25.75188840323762</v>
+        <v>25.75188840323761</v>
       </c>
     </row>
     <row r="3372" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>7.116438882086385</v>
+        <v>7.116438882086384</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27423,7 +27423,7 @@
         <v>3385</v>
       </c>
       <c r="B3385">
-        <v>46.63876825759304</v>
+        <v>46.63876825759303</v>
       </c>
     </row>
     <row r="3386" spans="1:2">
@@ -27431,7 +27431,7 @@
         <v>3386</v>
       </c>
       <c r="B3386">
-        <v>48.32550931350454</v>
+        <v>48.32550931350453</v>
       </c>
     </row>
     <row r="3387" spans="1:2">
@@ -27447,7 +27447,7 @@
         <v>3388</v>
       </c>
       <c r="B3388">
-        <v>63.69154624866141</v>
+        <v>63.6915462486614</v>
       </c>
     </row>
     <row r="3389" spans="1:2">
@@ -27527,7 +27527,7 @@
         <v>3398</v>
       </c>
       <c r="B3398">
-        <v>0.9626182028766682</v>
+        <v>0.962618202876668</v>
       </c>
     </row>
     <row r="3399" spans="1:2">
@@ -27535,7 +27535,7 @@
         <v>3399</v>
       </c>
       <c r="B3399">
-        <v>0.5532858831783672</v>
+        <v>0.5532858831783671</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -27639,7 +27639,7 @@
         <v>3412</v>
       </c>
       <c r="B3412">
-        <v>29.68788520524645</v>
+        <v>29.68788520524644</v>
       </c>
     </row>
     <row r="3413" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>3.520105552465285</v>
+        <v>3.520105552465284</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>0.1569489194763876</v>
+        <v>0.1569489194763875</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28999,7 +28999,7 @@
         <v>3582</v>
       </c>
       <c r="B3582">
-        <v>0.9598574736924784</v>
+        <v>0.9598574736924782</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>0.9902167025874072</v>
+        <v>0.990216702587407</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>19.86951305074643</v>
+        <v>19.86951305074642</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>2.394416762256671</v>
+        <v>2.39441676225667</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>0.0314090093554137</v>
+        <v>0.0314090093554136</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -31511,7 +31511,7 @@
         <v>3896</v>
       </c>
       <c r="B3896">
-        <v>2.217560113266096</v>
+        <v>2.217560113266095</v>
       </c>
     </row>
     <row r="3897" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>0.6117008026043466</v>
+        <v>0.6117008026043464</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>0.3064262858931428</v>
+        <v>0.3064262858931427</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -36895,7 +36895,7 @@
         <v>4569</v>
       </c>
       <c r="B4569">
-        <v>0.5884631999488885</v>
+        <v>0.5884631999488884</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -37063,7 +37063,7 @@
         <v>4590</v>
       </c>
       <c r="B4590">
-        <v>2.426859726236482</v>
+        <v>2.426859726236481</v>
       </c>
     </row>
     <row r="4591" spans="1:2">
@@ -40143,7 +40143,7 @@
         <v>4975</v>
       </c>
       <c r="B4975">
-        <v>0.9119725966856012</v>
+        <v>0.911972596685601</v>
       </c>
     </row>
     <row r="4976" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>0.7664247267552172</v>
+        <v>0.7664247267552171</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>0.2354351020561278</v>
+        <v>0.2354351020561277</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>0.6506206365385733</v>
+        <v>0.6506206365385732</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>0.1433023596321607</v>
+        <v>0.1433023596321606</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42847,7 +42847,7 @@
         <v>5313</v>
       </c>
       <c r="B5313">
-        <v>0.7794605265548739</v>
+        <v>0.7794605265548737</v>
       </c>
     </row>
     <row r="5314" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>0.8163904081365899</v>
+        <v>0.8163904081365898</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -45559,7 +45559,7 @@
         <v>5652</v>
       </c>
       <c r="B5652">
-        <v>0.8972369848617087</v>
+        <v>0.8972369848617086</v>
       </c>
     </row>
     <row r="5653" spans="1:2">
@@ -46479,7 +46479,7 @@
         <v>5767</v>
       </c>
       <c r="B5767">
-        <v>0.802856387571209</v>
+        <v>0.8028563875712089</v>
       </c>
     </row>
     <row r="5768" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>18.47892027940221</v>
+        <v>18.4789202794022</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46855,7 +46855,7 @@
         <v>5814</v>
       </c>
       <c r="B5814">
-        <v>9.530523641747619</v>
+        <v>9.530523641747616</v>
       </c>
     </row>
     <row r="5815" spans="1:2">
@@ -46871,7 +46871,7 @@
         <v>5816</v>
       </c>
       <c r="B5816">
-        <v>6.914776700383514</v>
+        <v>6.914776700383513</v>
       </c>
     </row>
     <row r="5817" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>0.8936644489004268</v>
+        <v>0.8936644489004267</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -47631,7 +47631,7 @@
         <v>5911</v>
       </c>
       <c r="B5911">
-        <v>2.312069661813606</v>
+        <v>2.312069661813605</v>
       </c>
     </row>
     <row r="5912" spans="1:2">
@@ -47791,7 +47791,7 @@
         <v>5931</v>
       </c>
       <c r="B5931">
-        <v>7.230238366398585</v>
+        <v>7.230238366398584</v>
       </c>
     </row>
     <row r="5932" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>31.81579195707565</v>
+        <v>31.81579195707564</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>1.277312022770448</v>
+        <v>1.277312022770447</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49015,7 +49015,7 @@
         <v>6084</v>
       </c>
       <c r="B6084">
-        <v>0.2640763485224238</v>
+        <v>0.2640763485224237</v>
       </c>
     </row>
     <row r="6085" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>2.416344337369313</v>
+        <v>2.416344337369312</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>0.3192891737799893</v>
+        <v>0.3192891737799892</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50335,7 +50335,7 @@
         <v>6249</v>
       </c>
       <c r="B6249">
-        <v>0.1183620142420802</v>
+        <v>0.1183620142420801</v>
       </c>
     </row>
     <row r="6250" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>79.51486192544156</v>
+        <v>79.51486192544155</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>76.82183215118246</v>
+        <v>76.82183215118245</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51471,7 +51471,7 @@
         <v>6391</v>
       </c>
       <c r="B6391">
-        <v>65.68659803724465</v>
+        <v>65.68659803724464</v>
       </c>
     </row>
     <row r="6392" spans="1:2">
@@ -51583,7 +51583,7 @@
         <v>6405</v>
       </c>
       <c r="B6405">
-        <v>6.497590076849089</v>
+        <v>6.497590076849088</v>
       </c>
     </row>
     <row r="6406" spans="1:2">
@@ -51647,7 +51647,7 @@
         <v>6413</v>
       </c>
       <c r="B6413">
-        <v>431.8368930718593</v>
+        <v>431.8368930718592</v>
       </c>
     </row>
     <row r="6414" spans="1:2">
@@ -51751,7 +51751,7 @@
         <v>6426</v>
       </c>
       <c r="B6426">
-        <v>60.03413691458328</v>
+        <v>60.03413691458327</v>
       </c>
     </row>
     <row r="6427" spans="1:2">
@@ -51807,7 +51807,7 @@
         <v>6433</v>
       </c>
       <c r="B6433">
-        <v>4.596496863260674</v>
+        <v>4.596496863260673</v>
       </c>
     </row>
     <row r="6434" spans="1:2">
@@ -51815,7 +51815,7 @@
         <v>6434</v>
       </c>
       <c r="B6434">
-        <v>5.584703098522864</v>
+        <v>5.584703098522863</v>
       </c>
     </row>
     <row r="6435" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>6.202789919059641</v>
+        <v>6.20278991905964</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -51999,7 +51999,7 @@
         <v>6457</v>
       </c>
       <c r="B6457">
-        <v>5.504489555241253</v>
+        <v>5.504489555241252</v>
       </c>
     </row>
     <row r="6458" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>8.071909082330103</v>
+        <v>8.071909082330102</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>96.07249639669161</v>
+        <v>96.07249639669158</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52255,7 +52255,7 @@
         <v>6489</v>
       </c>
       <c r="B6489">
-        <v>45.15843713421072</v>
+        <v>45.15843713421071</v>
       </c>
     </row>
     <row r="6490" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>6.061558985528739</v>
+        <v>6.061558985528738</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>102.8925525373798</v>
+        <v>102.8925525373797</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>6.691339340508104</v>
+        <v>6.691339340508103</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>4.97001560896352</v>
+        <v>4.970015608963519</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>0.3106816773745055</v>
+        <v>0.3106816773745054</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54135,7 +54135,7 @@
         <v>6724</v>
       </c>
       <c r="B6724">
-        <v>59.05615885857037</v>
+        <v>59.05615885857036</v>
       </c>
     </row>
     <row r="6725" spans="1:2">
@@ -54351,7 +54351,7 @@
         <v>6751</v>
       </c>
       <c r="B6751">
-        <v>515.4093821417749</v>
+        <v>515.4093821417748</v>
       </c>
     </row>
     <row r="6752" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>11.10490126143637</v>
+        <v>11.10490126143636</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>7.438084347017211</v>
+        <v>7.43808434701721</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>63.6239640671461</v>
+        <v>63.62396406714609</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>78.41027718072695</v>
+        <v>78.41027718072694</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54935,7 +54935,7 @@
         <v>6824</v>
       </c>
       <c r="B6824">
-        <v>52.13938927512396</v>
+        <v>52.13938927512395</v>
       </c>
     </row>
     <row r="6825" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>6.930661150678959</v>
+        <v>6.930661150678958</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -55631,7 +55631,7 @@
         <v>6911</v>
       </c>
       <c r="B6911">
-        <v>4.052791472336146</v>
+        <v>4.052791472336145</v>
       </c>
     </row>
     <row r="6912" spans="1:2">
@@ -55703,7 +55703,7 @@
         <v>6920</v>
       </c>
       <c r="B6920">
-        <v>49.64740623338654</v>
+        <v>49.64740623338653</v>
       </c>
     </row>
     <row r="6921" spans="1:2">
@@ -55719,7 +55719,7 @@
         <v>6922</v>
       </c>
       <c r="B6922">
-        <v>6.082015344027301</v>
+        <v>6.0820153440273</v>
       </c>
     </row>
     <row r="6923" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>4.885376986069161</v>
+        <v>4.88537698606916</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55815,7 +55815,7 @@
         <v>6934</v>
       </c>
       <c r="B6934">
-        <v>6.631201163374795</v>
+        <v>6.631201163374794</v>
       </c>
     </row>
     <row r="6935" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>19.68232564764304</v>
+        <v>19.68232564764303</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>34.92735648164702</v>
+        <v>34.92735648164701</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>40.14223323648313</v>
+        <v>40.14223323648312</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>5.462990696166807</v>
+        <v>5.462990696166806</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -56079,7 +56079,7 @@
         <v>6967</v>
       </c>
       <c r="B6967">
-        <v>355.231347347209</v>
+        <v>355.2313473472088</v>
       </c>
     </row>
     <row r="6968" spans="1:2">
@@ -56143,7 +56143,7 @@
         <v>6975</v>
       </c>
       <c r="B6975">
-        <v>5.540654521412064</v>
+        <v>5.540654521412063</v>
       </c>
     </row>
     <row r="6976" spans="1:2">
@@ -56239,7 +56239,7 @@
         <v>6987</v>
       </c>
       <c r="B6987">
-        <v>86.08111854664901</v>
+        <v>86.08111854664899</v>
       </c>
     </row>
     <row r="6988" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>97.94961639931751</v>
+        <v>97.94961639931748</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -56343,7 +56343,7 @@
         <v>7000</v>
       </c>
       <c r="B7000">
-        <v>4.656312662251454</v>
+        <v>4.656312662251453</v>
       </c>
     </row>
     <row r="7001" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>97.8655050112217</v>
+        <v>97.86550501122169</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>4.363593308836503</v>
+        <v>4.363593308836502</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>9.73795932291212</v>
+        <v>9.737959322912118</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>3.240896773932621</v>
+        <v>3.24089677393262</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>4.94293613806225</v>
+        <v>4.942936138062249</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>61.77734115989312</v>
+        <v>61.77734115989311</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>39.25305570518461</v>
+        <v>39.2530557051846</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57639,7 +57639,7 @@
         <v>7162</v>
       </c>
       <c r="B7162">
-        <v>28.66806246633347</v>
+        <v>28.66806246633346</v>
       </c>
     </row>
     <row r="7163" spans="1:2">
@@ -57647,7 +57647,7 @@
         <v>7163</v>
       </c>
       <c r="B7163">
-        <v>8.682082984823024</v>
+        <v>8.682082984823023</v>
       </c>
     </row>
     <row r="7164" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>5.662542766391318</v>
+        <v>5.662542766391317</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57695,7 +57695,7 @@
         <v>7169</v>
       </c>
       <c r="B7169">
-        <v>53.52004693825756</v>
+        <v>53.52004693825755</v>
       </c>
     </row>
     <row r="7170" spans="1:2">
@@ -57711,7 +57711,7 @@
         <v>7171</v>
       </c>
       <c r="B7171">
-        <v>5.464045751905988</v>
+        <v>5.464045751905987</v>
       </c>
     </row>
     <row r="7172" spans="1:2">
@@ -57783,7 +57783,7 @@
         <v>7180</v>
       </c>
       <c r="B7180">
-        <v>67.2789702187072</v>
+        <v>67.27897021870719</v>
       </c>
     </row>
     <row r="7181" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>45.32797873007631</v>
+        <v>45.32797873007629</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>72.10649498174462</v>
+        <v>72.1064949817446</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58119,7 +58119,7 @@
         <v>7222</v>
       </c>
       <c r="B7222">
-        <v>153.9472858984181</v>
+        <v>153.947285898418</v>
       </c>
     </row>
     <row r="7223" spans="1:2">
@@ -58207,7 +58207,7 @@
         <v>7233</v>
       </c>
       <c r="B7233">
-        <v>252.2648822938788</v>
+        <v>252.2648822938787</v>
       </c>
     </row>
     <row r="7234" spans="1:2">
@@ -58327,7 +58327,7 @@
         <v>7248</v>
       </c>
       <c r="B7248">
-        <v>56.91005825666107</v>
+        <v>56.91005825666106</v>
       </c>
     </row>
     <row r="7249" spans="1:2">
@@ -58359,7 +58359,7 @@
         <v>7252</v>
       </c>
       <c r="B7252">
-        <v>85.95421878690864</v>
+        <v>85.95421878690863</v>
       </c>
     </row>
     <row r="7253" spans="1:2">
@@ -58471,7 +58471,7 @@
         <v>7266</v>
       </c>
       <c r="B7266">
-        <v>161.9188181500067</v>
+        <v>161.9188181500066</v>
       </c>
     </row>
     <row r="7267" spans="1:2">
@@ -58527,7 +58527,7 @@
         <v>7273</v>
       </c>
       <c r="B7273">
-        <v>59.78438177543608</v>
+        <v>59.78438177543607</v>
       </c>
     </row>
     <row r="7274" spans="1:2">
@@ -58743,7 +58743,7 @@
         <v>7300</v>
       </c>
       <c r="B7300">
-        <v>99.22623384372633</v>
+        <v>99.22623384372631</v>
       </c>
     </row>
     <row r="7301" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>163.3896801481299</v>
+        <v>163.3896801481298</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>92.89267562721599</v>
+        <v>92.89267562721598</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>65.91431423428452</v>
+        <v>65.9143142342845</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -58919,7 +58919,7 @@
         <v>7322</v>
       </c>
       <c r="B7322">
-        <v>77.24561287308677</v>
+        <v>77.24561287308676</v>
       </c>
     </row>
     <row r="7323" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>67.17422662948964</v>
+        <v>67.17422662948962</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>8.608317004391964</v>
+        <v>8.608317004391962</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>24.99585304480295</v>
+        <v>24.99585304480294</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59103,7 +59103,7 @@
         <v>7345</v>
       </c>
       <c r="B7345">
-        <v>59.74343975133509</v>
+        <v>59.74343975133508</v>
       </c>
     </row>
     <row r="7346" spans="1:2">
@@ -59111,7 +59111,7 @@
         <v>7346</v>
       </c>
       <c r="B7346">
-        <v>62.06687763873838</v>
+        <v>62.06687763873836</v>
       </c>
     </row>
     <row r="7347" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>138.7072988169895</v>
+        <v>138.7072988169894</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>3.633817115465887</v>
+        <v>3.633817115465886</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>9.745872240955975</v>
+        <v>9.745872240955974</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>23.23648898551116</v>
+        <v>23.23648898551115</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59303,7 +59303,7 @@
         <v>7370</v>
       </c>
       <c r="B7370">
-        <v>29.61857976602381</v>
+        <v>29.6185797660238</v>
       </c>
     </row>
     <row r="7371" spans="1:2">
@@ -59319,7 +59319,7 @@
         <v>7372</v>
       </c>
       <c r="B7372">
-        <v>26.66911283293603</v>
+        <v>26.66911283293602</v>
       </c>
     </row>
     <row r="7373" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>38.47246099371011</v>
+        <v>38.4724609937101</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>62.98624148701902</v>
+        <v>62.98624148701901</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59439,7 +59439,7 @@
         <v>7387</v>
       </c>
       <c r="B7387">
-        <v>1.296062707824001</v>
+        <v>1.296062707824</v>
       </c>
     </row>
     <row r="7388" spans="1:2">
@@ -59447,7 +59447,7 @@
         <v>7388</v>
       </c>
       <c r="B7388">
-        <v>2.348539421864624</v>
+        <v>2.348539421864623</v>
       </c>
     </row>
     <row r="7389" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>610.6093767492679</v>
+        <v>610.6093767492678</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>63.68756048253561</v>
+        <v>63.6875604825356</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>115.5206905222585</v>
+        <v>115.5206905222584</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>443.5677061505647</v>
+        <v>443.5677061505646</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>59.60918390852433</v>
+        <v>59.60918390852432</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59927,7 +59927,7 @@
         <v>7448</v>
       </c>
       <c r="B7448">
-        <v>528.2620125422683</v>
+        <v>528.2620125422682</v>
       </c>
     </row>
     <row r="7449" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>52.21822538452386</v>
+        <v>52.21822538452385</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -59983,7 +59983,7 @@
         <v>7455</v>
       </c>
       <c r="B7455">
-        <v>29.3293772650728</v>
+        <v>29.32937726507279</v>
       </c>
     </row>
     <row r="7456" spans="1:2">
@@ -59991,7 +59991,7 @@
         <v>7456</v>
       </c>
       <c r="B7456">
-        <v>35.88244568954048</v>
+        <v>35.88244568954047</v>
       </c>
     </row>
     <row r="7457" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>81.858844092655</v>
+        <v>81.85884409265499</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>46.8337777267183</v>
+        <v>46.83377772671829</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>30.0579518671849</v>
+        <v>30.05795186718489</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>13.20865895967988</v>
+        <v>13.20865895967987</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>4.180218759946099</v>
+        <v>4.180218759946098</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -60495,7 +60495,7 @@
         <v>7519</v>
       </c>
       <c r="B7519">
-        <v>30.62044311168762</v>
+        <v>30.62044311168761</v>
       </c>
     </row>
     <row r="7520" spans="1:2">
@@ -60719,7 +60719,7 @@
         <v>7547</v>
       </c>
       <c r="B7547">
-        <v>5.596871408048083</v>
+        <v>5.596871408048082</v>
       </c>
     </row>
     <row r="7548" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>2.649280715749814</v>
+        <v>2.649280715749813</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -60791,7 +60791,7 @@
         <v>7556</v>
       </c>
       <c r="B7556">
-        <v>37.99827205315606</v>
+        <v>37.99827205315605</v>
       </c>
     </row>
     <row r="7557" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>73.65783721779458</v>
+        <v>73.65783721779457</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -60927,7 +60927,7 @@
         <v>7573</v>
       </c>
       <c r="B7573">
-        <v>0.8428517922173228</v>
+        <v>0.8428517922173226</v>
       </c>
     </row>
     <row r="7574" spans="1:2">
@@ -61063,7 +61063,7 @@
         <v>7590</v>
       </c>
       <c r="B7590">
-        <v>826.1704817677577</v>
+        <v>826.1704817677576</v>
       </c>
     </row>
     <row r="7591" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>698.364839446893</v>
+        <v>698.3648394468928</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61095,7 +61095,7 @@
         <v>7594</v>
       </c>
       <c r="B7594">
-        <v>232.4109020081814</v>
+        <v>232.4109020081813</v>
       </c>
     </row>
     <row r="7595" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>447.1648600790941</v>
+        <v>447.164860079094</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>403.7393813035918</v>
+        <v>403.7393813035917</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>95.24377004239567</v>
+        <v>95.24377004239565</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>523.5670145029135</v>
+        <v>523.5670145029134</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>749.1988903158193</v>
+        <v>749.1988903158192</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>315.9532047611149</v>
+        <v>315.9532047611148</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>700.9916351664147</v>
+        <v>700.9916351664145</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61871,7 +61871,7 @@
         <v>7691</v>
       </c>
       <c r="B7691">
-        <v>1.209647488293278</v>
+        <v>1.209647488293277</v>
       </c>
     </row>
     <row r="7692" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>257.3870020649786</v>
+        <v>257.3870020649785</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62023,7 +62023,7 @@
         <v>7710</v>
       </c>
       <c r="B7710">
-        <v>329.806614144429</v>
+        <v>329.8066141444289</v>
       </c>
     </row>
     <row r="7711" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>362.1235575776155</v>
+        <v>362.1235575776154</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>55.36718577362842</v>
+        <v>55.36718577362841</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62135,7 +62135,7 @@
         <v>7724</v>
       </c>
       <c r="B7724">
-        <v>198.9465854586357</v>
+        <v>198.9465854586356</v>
       </c>
     </row>
     <row r="7725" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>209.7887485339122</v>
+        <v>209.7887485339121</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>244.5255795333255</v>
+        <v>244.5255795333254</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>633.1451035742358</v>
+        <v>633.1451035742357</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62255,7 +62255,7 @@
         <v>7739</v>
       </c>
       <c r="B7739">
-        <v>595.2779808108808</v>
+        <v>595.2779808108806</v>
       </c>
     </row>
     <row r="7740" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>662.3015689264985</v>
+        <v>662.3015689264984</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>318.3170571447496</v>
+        <v>318.3170571447495</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>787.1844137787936</v>
+        <v>787.1844137787934</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62431,7 +62431,7 @@
         <v>7761</v>
       </c>
       <c r="B7761">
-        <v>577.657377682406</v>
+        <v>577.6573776824059</v>
       </c>
     </row>
     <row r="7762" spans="1:2">
@@ -62511,7 +62511,7 @@
         <v>7771</v>
       </c>
       <c r="B7771">
-        <v>685.368311166417</v>
+        <v>685.3683111664168</v>
       </c>
     </row>
     <row r="7772" spans="1:2">
@@ -62519,7 +62519,7 @@
         <v>7772</v>
       </c>
       <c r="B7772">
-        <v>81.81693493412644</v>
+        <v>81.81693493412642</v>
       </c>
     </row>
     <row r="7773" spans="1:2">
@@ -62607,7 +62607,7 @@
         <v>7783</v>
       </c>
       <c r="B7783">
-        <v>906.6228779458769</v>
+        <v>906.6228779458768</v>
       </c>
     </row>
     <row r="7784" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>610.7465633024652</v>
+        <v>610.7465633024651</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>700.0675821815154</v>
+        <v>700.0675821815153</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>86.58725223041715</v>
+        <v>86.58725223041714</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>894.8455251862321</v>
+        <v>894.845525186232</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>548.6541884833633</v>
+        <v>548.6541884833632</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>513.7177761066216</v>
+        <v>513.7177761066215</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63231,7 +63231,7 @@
         <v>7861</v>
       </c>
       <c r="B7861">
-        <v>74.77036418765692</v>
+        <v>74.7703641876569</v>
       </c>
     </row>
     <row r="7862" spans="1:2">
@@ -63247,7 +63247,7 @@
         <v>7863</v>
       </c>
       <c r="B7863">
-        <v>63.58941099168793</v>
+        <v>63.58941099168792</v>
       </c>
     </row>
     <row r="7864" spans="1:2">
@@ -63463,7 +63463,7 @@
         <v>7890</v>
       </c>
       <c r="B7890">
-        <v>332.8785847716772</v>
+        <v>332.8785847716771</v>
       </c>
     </row>
     <row r="7891" spans="1:2">
@@ -63591,7 +63591,7 @@
         <v>7906</v>
       </c>
       <c r="B7906">
-        <v>447.3731456662707</v>
+        <v>447.3731456662706</v>
       </c>
     </row>
     <row r="7907" spans="1:2">
@@ -63599,7 +63599,7 @@
         <v>7907</v>
       </c>
       <c r="B7907">
-        <v>528.262276306203</v>
+        <v>528.2622763062029</v>
       </c>
     </row>
     <row r="7908" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>502.8513174422402</v>
+        <v>502.8513174422401</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63655,7 +63655,7 @@
         <v>7914</v>
       </c>
       <c r="B7914">
-        <v>381.9193925692425</v>
+        <v>381.9193925692424</v>
       </c>
     </row>
     <row r="7915" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>948.0018709655109</v>
+        <v>948.0018709655108</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -64047,7 +64047,7 @@
         <v>7963</v>
       </c>
       <c r="B7963">
-        <v>459.7953426322821</v>
+        <v>459.795342632282</v>
       </c>
     </row>
     <row r="7964" spans="1:2">
@@ -64343,7 +64343,7 @@
         <v>8000</v>
       </c>
       <c r="B8000">
-        <v>629.6748494054468</v>
+        <v>629.6748494054467</v>
       </c>
     </row>
     <row r="8001" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>397.0570392439706</v>
+        <v>397.0570392439705</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>95.08719156471216</v>
+        <v>95.08719156471213</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>65.25971076233053</v>
+        <v>65.25971076233051</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64655,7 +64655,7 @@
         <v>8039</v>
       </c>
       <c r="B8039">
-        <v>102.7325357502707</v>
+        <v>102.7325357502706</v>
       </c>
     </row>
     <row r="8040" spans="1:2">
@@ -64679,7 +64679,7 @@
         <v>8042</v>
       </c>
       <c r="B8042">
-        <v>173.6167486581743</v>
+        <v>173.6167486581742</v>
       </c>
     </row>
     <row r="8043" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>90.95767409445446</v>
+        <v>90.95767409445445</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64831,7 +64831,7 @@
         <v>8061</v>
       </c>
       <c r="B8061">
-        <v>70.80388213620652</v>
+        <v>70.80388213620651</v>
       </c>
     </row>
     <row r="8062" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>210.1829290809117</v>
+        <v>210.1829290809116</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -64959,7 +64959,7 @@
         <v>8077</v>
       </c>
       <c r="B8077">
-        <v>49.68579853945118</v>
+        <v>49.68579853945117</v>
       </c>
     </row>
     <row r="8078" spans="1:2">
@@ -64983,7 +64983,7 @@
         <v>8080</v>
       </c>
       <c r="B8080">
-        <v>35.76287270576665</v>
+        <v>35.76287270576664</v>
       </c>
     </row>
     <row r="8081" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>4.348617085689869</v>
+        <v>4.348617085689868</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>51.83107854245223</v>
+        <v>51.83107854245222</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65247,7 +65247,7 @@
         <v>8113</v>
       </c>
       <c r="B8113">
-        <v>1.967394674664771</v>
+        <v>1.96739467466477</v>
       </c>
     </row>
     <row r="8114" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>82.15953497832155</v>
+        <v>82.15953497832153</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65471,7 +65471,7 @@
         <v>8141</v>
       </c>
       <c r="B8141">
-        <v>4.502479674058114</v>
+        <v>4.502479674058113</v>
       </c>
     </row>
     <row r="8142" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>291.7082583315701</v>
+        <v>291.70825833157</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65503,7 +65503,7 @@
         <v>8145</v>
       </c>
       <c r="B8145">
-        <v>81.14814682390124</v>
+        <v>81.14814682390123</v>
       </c>
     </row>
     <row r="8146" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>46.17246292797897</v>
+        <v>46.17246292797896</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>2.152079251097991</v>
+        <v>2.15207925109799</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65567,7 +65567,7 @@
         <v>8153</v>
       </c>
       <c r="B8153">
-        <v>9.248384152828342</v>
+        <v>9.24838415282834</v>
       </c>
     </row>
     <row r="8154" spans="1:2">
@@ -65575,7 +65575,7 @@
         <v>8154</v>
       </c>
       <c r="B8154">
-        <v>24.51512862008674</v>
+        <v>24.51512862008673</v>
       </c>
     </row>
     <row r="8155" spans="1:2">
@@ -65703,7 +65703,7 @@
         <v>8170</v>
       </c>
       <c r="B8170">
-        <v>6.043476502443334</v>
+        <v>6.043476502443333</v>
       </c>
     </row>
     <row r="8171" spans="1:2">
@@ -65743,7 +65743,7 @@
         <v>8175</v>
       </c>
       <c r="B8175">
-        <v>0.2543695426509214</v>
+        <v>0.2543695426509213</v>
       </c>
     </row>
     <row r="8176" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>84.53663417290372</v>
+        <v>84.5366341729037</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>51.66059911926293</v>
+        <v>51.66059911926291</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>96.05268479447808</v>
+        <v>96.05268479447807</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66039,7 +66039,7 @@
         <v>8212</v>
       </c>
       <c r="B8212">
-        <v>130.2814478412681</v>
+        <v>130.281447841268</v>
       </c>
     </row>
     <row r="8213" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>65.47250964350253</v>
+        <v>65.47250964350252</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>93.38081474921033</v>
+        <v>93.38081474921032</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>806.5704768441642</v>
+        <v>806.5704768441641</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>527.2784661365207</v>
+        <v>527.2784661365206</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>511.1747987041572</v>
+        <v>511.1747987041571</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66415,7 +66415,7 @@
         <v>8259</v>
       </c>
       <c r="B8259">
-        <v>98.65562453145269</v>
+        <v>98.65562453145267</v>
       </c>
     </row>
     <row r="8260" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>86.35894989129996</v>
+        <v>86.35894989129994</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>213.9222224631918</v>
+        <v>213.9222224631917</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>785.1947544973217</v>
+        <v>785.1947544973216</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66663,7 +66663,7 @@
         <v>8290</v>
       </c>
       <c r="B8290">
-        <v>525.7489283857473</v>
+        <v>525.7489283857471</v>
       </c>
     </row>
     <row r="8291" spans="1:2">
@@ -66711,7 +66711,7 @@
         <v>8296</v>
       </c>
       <c r="B8296">
-        <v>263.6934805175166</v>
+        <v>263.6934805175165</v>
       </c>
     </row>
     <row r="8297" spans="1:2">
@@ -66727,7 +66727,7 @@
         <v>8298</v>
       </c>
       <c r="B8298">
-        <v>466.0289636246089</v>
+        <v>466.0289636246088</v>
       </c>
     </row>
     <row r="8299" spans="1:2">
@@ -66751,7 +66751,7 @@
         <v>8301</v>
       </c>
       <c r="B8301">
-        <v>53.47969105623389</v>
+        <v>53.47969105623388</v>
       </c>
     </row>
     <row r="8302" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>83.28990997443836</v>
+        <v>83.28990997443833</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>541.9607390313769</v>
+        <v>541.9607390313768</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66903,7 +66903,7 @@
         <v>8320</v>
       </c>
       <c r="B8320">
-        <v>442.8596465211589</v>
+        <v>442.8596465211588</v>
       </c>
     </row>
     <row r="8321" spans="1:2">
@@ -66911,7 +66911,7 @@
         <v>8321</v>
       </c>
       <c r="B8321">
-        <v>499.5328447643739</v>
+        <v>499.5328447643738</v>
       </c>
     </row>
     <row r="8322" spans="1:2">
@@ -66975,7 +66975,7 @@
         <v>8329</v>
       </c>
       <c r="B8329">
-        <v>163.1752136927479</v>
+        <v>163.1752136927478</v>
       </c>
     </row>
     <row r="8330" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>231.7787477777889</v>
+        <v>231.7787477777888</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67271,7 +67271,7 @@
         <v>8366</v>
       </c>
       <c r="B8366">
-        <v>17.58283506372244</v>
+        <v>17.58283506372243</v>
       </c>
     </row>
     <row r="8367" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>236.9696220145586</v>
+        <v>236.9696220145585</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>675.708689732139</v>
+        <v>675.7086897321389</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>591.8475843033497</v>
+        <v>591.8475843033495</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67647,7 +67647,7 @@
         <v>8413</v>
       </c>
       <c r="B8413">
-        <v>165.7550301247721</v>
+        <v>165.755030124772</v>
       </c>
     </row>
     <row r="8414" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>235.7747420828325</v>
+        <v>235.7747420828324</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>64.6851156839311</v>
+        <v>64.68511568393109</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>132.5249652564284</v>
+        <v>132.5249652564283</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>210.624000994097</v>
+        <v>210.6240009940969</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67871,7 +67871,7 @@
         <v>8441</v>
       </c>
       <c r="B8441">
-        <v>328.9417615093394</v>
+        <v>328.9417615093392</v>
       </c>
     </row>
     <row r="8442" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>98.87073867383012</v>
+        <v>98.8707386738301</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>52.22971376923939</v>
+        <v>52.22971376923938</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>70.84816517014826</v>
+        <v>70.84816517014825</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>153.2529126865178</v>
+        <v>153.2529126865177</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68311,7 +68311,7 @@
         <v>8496</v>
       </c>
       <c r="B8496">
-        <v>43.25294785504238</v>
+        <v>43.25294785504236</v>
       </c>
     </row>
     <row r="8497" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>86.60923255831675</v>
+        <v>86.60923255831673</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68383,7 +68383,7 @@
         <v>8505</v>
       </c>
       <c r="B8505">
-        <v>410.0444823222481</v>
+        <v>410.044482322248</v>
       </c>
     </row>
     <row r="8506" spans="1:2">
@@ -68399,7 +68399,7 @@
         <v>8507</v>
       </c>
       <c r="B8507">
-        <v>369.86787185293</v>
+        <v>369.8678718529299</v>
       </c>
     </row>
     <row r="8508" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>368.995223528212</v>
+        <v>368.9952235282119</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>594.8073087227907</v>
+        <v>594.8073087227906</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68759,7 +68759,7 @@
         <v>8552</v>
       </c>
       <c r="B8552">
-        <v>587.3606667014445</v>
+        <v>587.3606667014444</v>
       </c>
     </row>
     <row r="8553" spans="1:2">
@@ -68831,7 +68831,7 @@
         <v>8561</v>
       </c>
       <c r="B8561">
-        <v>435.7881354292993</v>
+        <v>435.7881354292992</v>
       </c>
     </row>
     <row r="8562" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>535.1928495355704</v>
+        <v>535.1928495355703</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -69031,7 +69031,7 @@
         <v>8586</v>
       </c>
       <c r="B8586">
-        <v>817.5626922912353</v>
+        <v>817.5626922912352</v>
       </c>
     </row>
     <row r="8587" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>356.1812491977181</v>
+        <v>356.181249197718</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69151,7 +69151,7 @@
         <v>8601</v>
       </c>
       <c r="B8601">
-        <v>269.4137582785242</v>
+        <v>269.4137582785241</v>
       </c>
     </row>
     <row r="8602" spans="1:2">
@@ -69239,7 +69239,7 @@
         <v>8612</v>
       </c>
       <c r="B8612">
-        <v>282.0322249191271</v>
+        <v>282.032224919127</v>
       </c>
     </row>
     <row r="8613" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>522.1825469162773</v>
+        <v>522.1825469162771</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69327,7 +69327,7 @@
         <v>8623</v>
       </c>
       <c r="B8623">
-        <v>1236.060222581593</v>
+        <v>1236.060222581592</v>
       </c>
     </row>
     <row r="8624" spans="1:2">
@@ -69375,7 +69375,7 @@
         <v>8629</v>
       </c>
       <c r="B8629">
-        <v>693.0230336252126</v>
+        <v>693.0230336252125</v>
       </c>
     </row>
     <row r="8630" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>326.6464291345437</v>
+        <v>326.6464291345436</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>1167.4593261359</v>
+        <v>1167.459326135899</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69543,7 +69543,7 @@
         <v>8650</v>
       </c>
       <c r="B8650">
-        <v>464.1559466165242</v>
+        <v>464.1559466165241</v>
       </c>
     </row>
     <row r="8651" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>692.4154973620676</v>
+        <v>692.4154973620675</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>458.0571383019816</v>
+        <v>458.0571383019815</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69967,7 +69967,7 @@
         <v>8703</v>
       </c>
       <c r="B8703">
-        <v>243.5971304828463</v>
+        <v>243.5971304828462</v>
       </c>
     </row>
     <row r="8704" spans="1:2">
@@ -70055,7 +70055,7 @@
         <v>8714</v>
       </c>
       <c r="B8714">
-        <v>370.1076918838666</v>
+        <v>370.1076918838665</v>
       </c>
     </row>
     <row r="8715" spans="1:2">
@@ -70063,7 +70063,7 @@
         <v>8715</v>
       </c>
       <c r="B8715">
-        <v>370.103002747248</v>
+        <v>370.1030027472479</v>
       </c>
     </row>
     <row r="8716" spans="1:2">
@@ -70127,7 +70127,7 @@
         <v>8723</v>
       </c>
       <c r="B8723">
-        <v>448.2524467035663</v>
+        <v>448.2524467035662</v>
       </c>
     </row>
     <row r="8724" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>265.9859994103412</v>
+        <v>265.9859994103411</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>538.1549185233206</v>
+        <v>538.1549185233205</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>909.4334292066392</v>
+        <v>909.4334292066391</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>763.8342718444895</v>
+        <v>763.8342718444894</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>763.3460154940798</v>
+        <v>763.3460154940797</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
